--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/15/seed1/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/AB/15/seed1/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-19.96859999999998</v>
+        <v>-19.78929999999998</v>
       </c>
       <c r="B4" t="n">
-        <v>8.982299999999995</v>
+        <v>8.787599999999996</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -513,7 +513,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-22.66900000000002</v>
+        <v>-22.67920000000002</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-19.76679999999998</v>
+        <v>-20.07389999999998</v>
       </c>
       <c r="B7" t="n">
         <v>9.43</v>
@@ -558,7 +558,7 @@
         <v>-21.5</v>
       </c>
       <c r="B9" t="n">
-        <v>6.690499999999995</v>
+        <v>6.184200000000001</v>
       </c>
       <c r="C9" t="n">
         <v>-11.36</v>
@@ -600,7 +600,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.713499999999997</v>
+        <v>4.719899999999996</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -653,7 +653,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.88480000000001</v>
+        <v>-21.94860000000001</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -670,7 +670,7 @@
         <v>-22.45</v>
       </c>
       <c r="B17" t="n">
-        <v>5.704799999999999</v>
+        <v>5.827199999999998</v>
       </c>
       <c r="C17" t="n">
         <v>-14.84</v>
@@ -684,7 +684,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.228299999999997</v>
+        <v>6.525099999999996</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -698,7 +698,7 @@
         <v>-18.24</v>
       </c>
       <c r="B19" t="n">
-        <v>9.294399999999996</v>
+        <v>9.150199999999998</v>
       </c>
       <c r="C19" t="n">
         <v>-12.15</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.69790000000002</v>
+        <v>-22.67750000000001</v>
       </c>
       <c r="B20" t="n">
-        <v>5.189199999999997</v>
+        <v>5.327999999999996</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -796,7 +796,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.239100000000005</v>
+        <v>4.419100000000004</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -821,7 +821,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.86080000000001</v>
+        <v>-21.9995</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -835,7 +835,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.47429999999998</v>
+        <v>-21.26539999999997</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -866,7 +866,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>4.947399999999999</v>
+        <v>5.092899999999998</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -877,7 +877,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.20120000000002</v>
+        <v>-21.16360000000001</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -978,7 +978,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>9.474100000000004</v>
+        <v>9.538300000000007</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -989,10 +989,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.05999999999997</v>
+        <v>-19.90429999999997</v>
       </c>
       <c r="B40" t="n">
-        <v>8.886299999999995</v>
+        <v>8.847999999999995</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1006,7 +1006,7 @@
         <v>-19.28</v>
       </c>
       <c r="B41" t="n">
-        <v>9.490799999999989</v>
+        <v>9.228599999999989</v>
       </c>
       <c r="C41" t="n">
         <v>-14.21</v>
@@ -1020,7 +1020,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>9.372799999999998</v>
+        <v>9.218099999999994</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1034,7 +1034,7 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>6.505600000000002</v>
+        <v>6.278800000000003</v>
       </c>
       <c r="C43" t="n">
         <v>-11.77</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.6916</v>
+        <v>-21.90820000000001</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1090,7 +1090,7 @@
         <v>-21.83</v>
       </c>
       <c r="B47" t="n">
-        <v>5.957500000000003</v>
+        <v>6.009499999999999</v>
       </c>
       <c r="C47" t="n">
         <v>-11.84</v>
@@ -1104,7 +1104,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.895400000000003</v>
+        <v>5.548100000000004</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.63839999999998</v>
+        <v>-21.74329999999999</v>
       </c>
       <c r="B51" t="n">
         <v>4.98</v>
@@ -1157,7 +1157,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.18179999999999</v>
+        <v>-22.1179</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.89360000000002</v>
+        <v>-21.88970000000003</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.09710000000002</v>
+        <v>-22.17010000000001</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-22.02490000000001</v>
+        <v>-22.08670000000001</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1314,7 +1314,7 @@
         <v>-21.46</v>
       </c>
       <c r="B63" t="n">
-        <v>4.807299999999997</v>
+        <v>4.811599999999998</v>
       </c>
       <c r="C63" t="n">
         <v>-9.970000000000001</v>
@@ -1328,7 +1328,7 @@
         <v>-21.62</v>
       </c>
       <c r="B64" t="n">
-        <v>5.414199999999998</v>
+        <v>5.371000000000001</v>
       </c>
       <c r="C64" t="n">
         <v>-10.62</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.44710000000001</v>
+        <v>-21.49750000000001</v>
       </c>
       <c r="B66" t="n">
         <v>5.18</v>
@@ -1451,7 +1451,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-20.09359999999998</v>
+        <v>-20.10219999999998</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-21.77759999999999</v>
+        <v>-21.69299999999998</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1496,7 +1496,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>5.205500000000004</v>
+        <v>5.282600000000005</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1566,7 +1566,7 @@
         <v>-22.03</v>
       </c>
       <c r="B81" t="n">
-        <v>5.768400000000006</v>
+        <v>5.369700000000003</v>
       </c>
       <c r="C81" t="n">
         <v>-11.36</v>
@@ -1678,7 +1678,7 @@
         <v>-22.69</v>
       </c>
       <c r="B89" t="n">
-        <v>5.411699999999995</v>
+        <v>5.3926</v>
       </c>
       <c r="C89" t="n">
         <v>-14.65</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.63060000000002</v>
+        <v>-21.64400000000001</v>
       </c>
       <c r="B92" t="n">
         <v>4.82</v>
@@ -1748,7 +1748,7 @@
         <v>-21.6</v>
       </c>
       <c r="B94" t="n">
-        <v>4.583099999999993</v>
+        <v>4.618399999999991</v>
       </c>
       <c r="C94" t="n">
         <v>-9.49</v>
@@ -1829,7 +1829,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.06710000000001</v>
+        <v>-22.1048</v>
       </c>
       <c r="B100" t="n">
         <v>4.73</v>
